--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.52987129906528</v>
+        <v>95.99050269953369</v>
       </c>
       <c r="D2" t="n">
-        <v>25.75552428806839</v>
+        <v>25.89832184747617</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>95.21297698190554</v>
+        <v>90.73197504572092</v>
       </c>
       <c r="D3" t="n">
-        <v>25.98325594609395</v>
+        <v>26.09135304319424</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.62579078422935</v>
+        <v>86.54771940793836</v>
       </c>
       <c r="D4" t="n">
-        <v>22.18813487222604</v>
+        <v>25.96429668500548</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.79821786757765</v>
+        <v>89.39785040205503</v>
       </c>
       <c r="D5" t="n">
-        <v>26.03700603698632</v>
+        <v>24.89261803267371</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.285533842848</v>
+        <v>92.99460003011694</v>
       </c>
       <c r="D6" t="n">
-        <v>24.65135258123983</v>
+        <v>22.48560186014851</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>91.02026532867637</v>
+        <v>86.67998499985958</v>
       </c>
       <c r="D7" t="n">
-        <v>23.55746835789976</v>
+        <v>19.48507688133327</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.08319716087854</v>
+        <v>85.81251886790831</v>
       </c>
       <c r="D8" t="n">
-        <v>23.67025624292006</v>
+        <v>24.33727865216804</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.41609896169237</v>
+        <v>88.18892853742291</v>
       </c>
       <c r="D9" t="n">
-        <v>26.02969261684688</v>
+        <v>25.87697120456991</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.53121664278238</v>
+        <v>81.73300229496589</v>
       </c>
       <c r="D10" t="n">
-        <v>24.40564085089937</v>
+        <v>25.6716001494628</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>86.41149422099335</v>
+        <v>79.42774461572229</v>
       </c>
       <c r="D11" t="n">
-        <v>25.16666198541547</v>
+        <v>23.24817319002079</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.52375078898784</v>
+        <v>83.18960394726351</v>
       </c>
       <c r="D12" t="n">
-        <v>25.89422773886557</v>
+        <v>22.41988987367807</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>84.36859129110123</v>
+        <v>77.16363225103433</v>
       </c>
       <c r="D13" t="n">
-        <v>24.83242141962686</v>
+        <v>23.50097826541154</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.09872159195976</v>
+        <v>80.86771521705354</v>
       </c>
       <c r="D14" t="n">
-        <v>29.37434452161698</v>
+        <v>25.32121218323926</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.2254687911613</v>
+        <v>78.59396296674718</v>
       </c>
       <c r="D15" t="n">
-        <v>24.60369716472883</v>
+        <v>22.58293630886368</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.37499896547051</v>
+        <v>77.54026676604549</v>
       </c>
       <c r="D16" t="n">
-        <v>23.79673583155915</v>
+        <v>24.14256077432326</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.13141801689257</v>
+        <v>80.00901147351038</v>
       </c>
       <c r="D17" t="n">
-        <v>21.20411740711149</v>
+        <v>24.66395607843581</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>79.48006900277103</v>
+        <v>76.22304665826155</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90183368090694</v>
+        <v>26.20854433585715</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>78.57562471410949</v>
+        <v>74.34649400599831</v>
       </c>
       <c r="D19" t="n">
-        <v>25.04177727208503</v>
+        <v>25.98859469973396</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>68.71977865677768</v>
+        <v>72.71538008904039</v>
       </c>
       <c r="D20" t="n">
-        <v>27.02183274404031</v>
+        <v>25.84548755735435</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>75.76601121704303</v>
+        <v>76.57731658463223</v>
       </c>
       <c r="D21" t="n">
-        <v>27.00092283073303</v>
+        <v>24.65528273520376</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.65326614036024</v>
+        <v>68.44963826832574</v>
       </c>
       <c r="D22" t="n">
-        <v>24.31634080297839</v>
+        <v>24.26178320399881</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.05994171203082</v>
+        <v>67.18961886241141</v>
       </c>
       <c r="D23" t="n">
-        <v>24.26974995911375</v>
+        <v>25.7424867066486</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.26458129179335</v>
+        <v>69.14647832960414</v>
       </c>
       <c r="D24" t="n">
-        <v>25.06835707551995</v>
+        <v>21.36655596715535</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>63.26593350770892</v>
+        <v>63.70733548099199</v>
       </c>
       <c r="D25" t="n">
-        <v>23.68415288912025</v>
+        <v>23.27489408699876</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.62712965675188</v>
+        <v>66.84203789449471</v>
       </c>
       <c r="D26" t="n">
-        <v>27.28721326948577</v>
+        <v>23.61259914006445</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.96593461630238</v>
+        <v>64.00466163590295</v>
       </c>
       <c r="D27" t="n">
-        <v>24.88283004492181</v>
+        <v>23.61158602466736</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.99665426324231</v>
+        <v>64.86506379467264</v>
       </c>
       <c r="D28" t="n">
-        <v>27.19684179502322</v>
+        <v>22.28374200018262</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.50425007255998</v>
+        <v>62.89125793423407</v>
       </c>
       <c r="D29" t="n">
-        <v>24.5671009433119</v>
+        <v>23.89707561200977</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.67642053799981</v>
+        <v>58.20782750347799</v>
       </c>
       <c r="D30" t="n">
-        <v>24.82607084613647</v>
+        <v>21.10865088430994</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.13539757498848</v>
+        <v>62.70150038241719</v>
       </c>
       <c r="D31" t="n">
-        <v>27.6404634061821</v>
+        <v>24.2013722075017</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.16219220707615</v>
+        <v>58.26027533621046</v>
       </c>
       <c r="D32" t="n">
-        <v>23.91776002941611</v>
+        <v>27.21107947989468</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>62.21918956277631</v>
+        <v>62.97225159262518</v>
       </c>
       <c r="D33" t="n">
-        <v>24.28545999433753</v>
+        <v>23.13827559576977</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>62.7076805870282</v>
+        <v>59.86969217790014</v>
       </c>
       <c r="D34" t="n">
-        <v>24.70209346561386</v>
+        <v>24.2917278032905</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.0084266647153</v>
+        <v>50.29258126757502</v>
       </c>
       <c r="D35" t="n">
-        <v>23.53853211403793</v>
+        <v>23.04972468957386</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.61493904601635</v>
+        <v>56.6383735980608</v>
       </c>
       <c r="D36" t="n">
-        <v>25.12853406231348</v>
+        <v>26.27235014189586</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03793229061983</v>
+        <v>52.84088094380073</v>
       </c>
       <c r="D37" t="n">
-        <v>27.05090872951156</v>
+        <v>21.51084938461141</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.92371358575662</v>
+        <v>53.06183527786421</v>
       </c>
       <c r="D38" t="n">
-        <v>27.74355021434619</v>
+        <v>23.96357740481649</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.27250283788831</v>
+        <v>50.25786021860823</v>
       </c>
       <c r="D39" t="n">
-        <v>29.90580185885478</v>
+        <v>26.54146920137483</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.40914701143761</v>
+        <v>49.51540467979849</v>
       </c>
       <c r="D40" t="n">
-        <v>23.06850858234753</v>
+        <v>22.3077283294845</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.44498503724756</v>
+        <v>49.97796466025489</v>
       </c>
       <c r="D41" t="n">
-        <v>23.05485620318467</v>
+        <v>23.73590580800148</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.20048103380277</v>
+        <v>50.11701931622114</v>
       </c>
       <c r="D42" t="n">
-        <v>25.12305637769689</v>
+        <v>23.86473341365035</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.24647595699135</v>
+        <v>45.72455225872068</v>
       </c>
       <c r="D43" t="n">
-        <v>22.78287539503056</v>
+        <v>24.28067835472488</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>44.03681784775474</v>
+        <v>46.23505006504659</v>
       </c>
       <c r="D44" t="n">
-        <v>23.46074795704261</v>
+        <v>23.67750016694405</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.07651064757167</v>
+        <v>46.77499256581203</v>
       </c>
       <c r="D45" t="n">
-        <v>27.43251860489266</v>
+        <v>23.92483657085917</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.90788826537632</v>
+        <v>49.70955858958063</v>
       </c>
       <c r="D46" t="n">
-        <v>22.9382291154497</v>
+        <v>22.96490048436707</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.13163393207765</v>
+        <v>46.13379469224846</v>
       </c>
       <c r="D47" t="n">
-        <v>22.69980082901232</v>
+        <v>25.8304689141424</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>47.24004015638785</v>
+        <v>48.58455691975794</v>
       </c>
       <c r="D48" t="n">
-        <v>23.59415415248675</v>
+        <v>24.39110245650113</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.88438424172592</v>
+        <v>42.31137147834159</v>
       </c>
       <c r="D49" t="n">
-        <v>26.56519407391361</v>
+        <v>25.91519436040175</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.21182026603197</v>
+        <v>39.08514750959859</v>
       </c>
       <c r="D50" t="n">
-        <v>22.2324959535151</v>
+        <v>21.42820579224024</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>38.40104630765268</v>
+        <v>40.29088972539488</v>
       </c>
       <c r="D51" t="n">
-        <v>22.57595327575476</v>
+        <v>24.02079855966412</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98965395585709</v>
+        <v>40.39570719022956</v>
       </c>
       <c r="D52" t="n">
-        <v>27.77627145762197</v>
+        <v>23.14559617096051</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.37636224958016</v>
+        <v>43.56906992245093</v>
       </c>
       <c r="D53" t="n">
-        <v>26.20573615013115</v>
+        <v>25.68030317386053</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.53090306116079</v>
+        <v>39.73757082763303</v>
       </c>
       <c r="D54" t="n">
-        <v>22.75867659206769</v>
+        <v>28.51209748254186</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.41768467218922</v>
+        <v>35.62219023487282</v>
       </c>
       <c r="D55" t="n">
-        <v>23.06101767668974</v>
+        <v>25.83413107876184</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.12643463671252</v>
+        <v>41.18930958014791</v>
       </c>
       <c r="D56" t="n">
-        <v>24.85816332394146</v>
+        <v>24.16041417403364</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.69083366334183</v>
+        <v>35.0286456902092</v>
       </c>
       <c r="D57" t="n">
-        <v>22.40694400880811</v>
+        <v>22.11670524896656</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.8896718750637</v>
+        <v>31.96291600368788</v>
       </c>
       <c r="D58" t="n">
-        <v>27.87913611253833</v>
+        <v>21.77181132821209</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.98255675400936</v>
+        <v>32.45216923865305</v>
       </c>
       <c r="D59" t="n">
-        <v>24.22559611100449</v>
+        <v>20.67950337953268</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.61884201946536</v>
+        <v>32.47192965496212</v>
       </c>
       <c r="D60" t="n">
-        <v>23.35708265286895</v>
+        <v>24.6233178625898</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.98443630144128</v>
+        <v>29.48324415835929</v>
       </c>
       <c r="D61" t="n">
-        <v>22.985046649992</v>
+        <v>27.19241353186951</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>36.08676603995421</v>
+        <v>30.15595835460204</v>
       </c>
       <c r="D62" t="n">
-        <v>23.08026873587428</v>
+        <v>23.29907937753992</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>32.04443084098423</v>
+        <v>27.18638020139235</v>
       </c>
       <c r="D63" t="n">
-        <v>25.59453849429479</v>
+        <v>23.24286145527432</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.89517650048563</v>
+        <v>25.81849049701192</v>
       </c>
       <c r="D64" t="n">
-        <v>23.04042419707718</v>
+        <v>27.49151108533591</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>31.24924891217442</v>
+        <v>29.08962868607276</v>
       </c>
       <c r="D65" t="n">
-        <v>22.70659715116863</v>
+        <v>23.60313287119506</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.00238540285158</v>
+        <v>26.96704287896631</v>
       </c>
       <c r="D66" t="n">
-        <v>25.25969140066577</v>
+        <v>23.80052632440247</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.27488924347575</v>
+        <v>29.35802223188203</v>
       </c>
       <c r="D67" t="n">
-        <v>22.45454607409501</v>
+        <v>22.39577995760665</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.38840932775559</v>
+        <v>26.27515503336174</v>
       </c>
       <c r="D68" t="n">
-        <v>23.51489470593491</v>
+        <v>22.69713616845955</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.98879423806544</v>
+        <v>25.62319680317354</v>
       </c>
       <c r="D69" t="n">
-        <v>24.85265278682449</v>
+        <v>24.50451374223153</v>
       </c>
     </row>
   </sheetData>
